--- a/Schedule/BackEnd-Developer.xlsx
+++ b/Schedule/BackEnd-Developer.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1780A634-2B7F-4E7F-B6CD-EDBB25C51962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,94 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>Schedule Date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Members</t>
+  </si>
+  <si>
+    <t>Discription</t>
+  </si>
+  <si>
+    <t>User Authentication</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>ForgotPassword</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>List product in cart</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>GET ALL</t>
+  </si>
+  <si>
+    <t>GET BY ID</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product </t>
+  </si>
+  <si>
+    <t>GET BY CATEGORY ID</t>
+  </si>
+  <si>
+    <t>GET BY USER ID</t>
+  </si>
+  <si>
+    <t>PIJAMA BE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +121,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -45,12 +143,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +504,966 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A3:A87"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B15:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Schedule/BackEnd-Developer.xlsx
+++ b/Schedule/BackEnd-Developer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A62E6-036B-4EF6-A710-B0ECAE122E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02140390-7788-464F-8BFB-582427D7AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Hữu Sĩ</t>
+  </si>
+  <si>
+    <t>Cart Detail</t>
   </si>
 </sst>
 </file>
@@ -282,18 +285,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +298,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,10 +641,10 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -657,8 +660,8 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
@@ -668,14 +671,14 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
@@ -685,14 +688,14 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4" t="s">
         <v>19</v>
       </c>
@@ -714,8 +717,8 @@
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
@@ -737,8 +740,8 @@
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -748,8 +751,8 @@
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -759,8 +762,8 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -774,8 +777,8 @@
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
@@ -799,8 +802,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
@@ -812,8 +815,8 @@
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -823,8 +826,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -834,8 +837,8 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -845,14 +848,14 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
@@ -860,14 +863,14 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="10" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
@@ -875,14 +878,14 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
@@ -894,8 +897,8 @@
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="4" t="s">
         <v>20</v>
       </c>
@@ -907,8 +910,8 @@
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="4" t="s">
         <v>24</v>
       </c>
@@ -920,8 +923,8 @@
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -931,8 +934,8 @@
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -942,8 +945,8 @@
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -957,8 +960,8 @@
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
@@ -970,8 +973,8 @@
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="4" t="s">
         <v>18</v>
       </c>
@@ -983,8 +986,8 @@
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -996,8 +999,8 @@
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="4" t="s">
         <v>20</v>
       </c>
@@ -1009,8 +1012,8 @@
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="8"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
@@ -1022,8 +1025,8 @@
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="4"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -1033,8 +1036,8 @@
       <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="4" t="s">
@@ -1048,9 +1051,11 @@
       <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="4"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1059,8 +1064,8 @@
       <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="8"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="4"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -1070,8 +1075,8 @@
       <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="4"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -1081,8 +1086,8 @@
       <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="4"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -1092,8 +1097,8 @@
       <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -1103,8 +1108,8 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="4"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -1114,8 +1119,8 @@
       <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="11"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="4"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -1125,8 +1130,8 @@
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="8"/>
+      <c r="A38" s="11"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="4"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -1136,8 +1141,8 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="4"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -1147,8 +1152,8 @@
       <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
+      <c r="A40" s="11"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="4"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -1158,8 +1163,8 @@
       <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="4"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -1169,8 +1174,8 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8"/>
+      <c r="A42" s="11"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="4"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -1180,8 +1185,8 @@
       <c r="I42" s="3"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="4"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -1191,7 +1196,7 @@
       <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
+      <c r="A44" s="11"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4"/>
       <c r="D44" s="3"/>
@@ -1202,7 +1207,7 @@
       <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
+      <c r="A45" s="11"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
@@ -1213,7 +1218,7 @@
       <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
+      <c r="A46" s="11"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4"/>
       <c r="D46" s="3"/>
@@ -1224,7 +1229,7 @@
       <c r="I46" s="3"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
+      <c r="A47" s="11"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
@@ -1235,7 +1240,7 @@
       <c r="I47" s="3"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
+      <c r="A48" s="11"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4"/>
       <c r="D48" s="3"/>
@@ -1246,7 +1251,7 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
+      <c r="A49" s="11"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4"/>
       <c r="D49" s="3"/>
@@ -1257,7 +1262,7 @@
       <c r="I49" s="3"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
+      <c r="A50" s="11"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4"/>
       <c r="D50" s="3"/>
@@ -1268,7 +1273,7 @@
       <c r="I50" s="3"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
+      <c r="A51" s="11"/>
       <c r="B51" s="3"/>
       <c r="C51" s="4"/>
       <c r="D51" s="3"/>
@@ -1279,7 +1284,7 @@
       <c r="I51" s="3"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
@@ -1290,7 +1295,7 @@
       <c r="I52" s="3"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
+      <c r="A53" s="11"/>
       <c r="B53" s="3"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
@@ -1301,7 +1306,7 @@
       <c r="I53" s="3"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
+      <c r="A54" s="11"/>
       <c r="B54" s="3"/>
       <c r="C54" s="4"/>
       <c r="D54" s="3"/>
@@ -1312,7 +1317,7 @@
       <c r="I54" s="3"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
+      <c r="A55" s="11"/>
       <c r="B55" s="3"/>
       <c r="C55" s="4"/>
       <c r="D55" s="3"/>
@@ -1323,7 +1328,7 @@
       <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
+      <c r="A56" s="11"/>
       <c r="B56" s="3"/>
       <c r="C56" s="4"/>
       <c r="D56" s="3"/>
@@ -1334,7 +1339,7 @@
       <c r="I56" s="3"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
+      <c r="A57" s="11"/>
       <c r="B57" s="3"/>
       <c r="C57" s="4"/>
       <c r="D57" s="3"/>
@@ -1345,7 +1350,7 @@
       <c r="I57" s="3"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
+      <c r="A58" s="11"/>
       <c r="B58" s="3"/>
       <c r="C58" s="4"/>
       <c r="D58" s="3"/>
@@ -1356,7 +1361,7 @@
       <c r="I58" s="3"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
+      <c r="A59" s="11"/>
       <c r="B59" s="3"/>
       <c r="C59" s="4"/>
       <c r="D59" s="3"/>
@@ -1367,7 +1372,7 @@
       <c r="I59" s="3"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
+      <c r="A60" s="11"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
@@ -1378,7 +1383,7 @@
       <c r="I60" s="3"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
       <c r="D61" s="3"/>
@@ -1389,7 +1394,7 @@
       <c r="I61" s="3"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
+      <c r="A62" s="11"/>
       <c r="B62" s="3"/>
       <c r="C62" s="4"/>
       <c r="D62" s="3"/>
@@ -1400,7 +1405,7 @@
       <c r="I62" s="3"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
+      <c r="A63" s="11"/>
       <c r="B63" s="3"/>
       <c r="C63" s="4"/>
       <c r="D63" s="3"/>
@@ -1411,7 +1416,7 @@
       <c r="I63" s="3"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
+      <c r="A64" s="11"/>
       <c r="B64" s="3"/>
       <c r="C64" s="4"/>
       <c r="D64" s="3"/>
@@ -1422,7 +1427,7 @@
       <c r="I64" s="3"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
+      <c r="A65" s="11"/>
       <c r="B65" s="3"/>
       <c r="C65" s="4"/>
       <c r="D65" s="3"/>
@@ -1433,7 +1438,7 @@
       <c r="I65" s="3"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
+      <c r="A66" s="11"/>
       <c r="B66" s="3"/>
       <c r="C66" s="4"/>
       <c r="D66" s="3"/>
@@ -1444,7 +1449,7 @@
       <c r="I66" s="3"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
+      <c r="A67" s="11"/>
       <c r="B67" s="3"/>
       <c r="C67" s="4"/>
       <c r="D67" s="3"/>
@@ -1455,7 +1460,7 @@
       <c r="I67" s="3"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
+      <c r="A68" s="11"/>
       <c r="B68" s="3"/>
       <c r="C68" s="4"/>
       <c r="D68" s="3"/>
@@ -1466,7 +1471,7 @@
       <c r="I68" s="3"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="6"/>
+      <c r="A69" s="11"/>
       <c r="B69" s="3"/>
       <c r="C69" s="4"/>
       <c r="D69" s="3"/>
@@ -1477,7 +1482,7 @@
       <c r="I69" s="3"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
+      <c r="A70" s="11"/>
       <c r="B70" s="3"/>
       <c r="C70" s="4"/>
       <c r="D70" s="3"/>
@@ -1488,7 +1493,7 @@
       <c r="I70" s="3"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
+      <c r="A71" s="11"/>
       <c r="B71" s="3"/>
       <c r="C71" s="4"/>
       <c r="D71" s="3"/>
@@ -1499,7 +1504,7 @@
       <c r="I71" s="3"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
+      <c r="A72" s="11"/>
       <c r="B72" s="3"/>
       <c r="C72" s="4"/>
       <c r="D72" s="3"/>
@@ -1510,7 +1515,7 @@
       <c r="I72" s="3"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
+      <c r="A73" s="11"/>
       <c r="B73" s="3"/>
       <c r="C73" s="4"/>
       <c r="D73" s="3"/>
@@ -1521,7 +1526,7 @@
       <c r="I73" s="3"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
+      <c r="A74" s="11"/>
       <c r="B74" s="3"/>
       <c r="C74" s="4"/>
       <c r="D74" s="3"/>
@@ -1532,7 +1537,7 @@
       <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
+      <c r="A75" s="11"/>
       <c r="B75" s="3"/>
       <c r="C75" s="4"/>
       <c r="D75" s="3"/>
@@ -1543,7 +1548,7 @@
       <c r="I75" s="3"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="6"/>
+      <c r="A76" s="11"/>
       <c r="B76" s="3"/>
       <c r="C76" s="4"/>
       <c r="D76" s="3"/>
@@ -1554,7 +1559,7 @@
       <c r="I76" s="3"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="6"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="3"/>
       <c r="C77" s="4"/>
       <c r="D77" s="3"/>
@@ -1565,7 +1570,7 @@
       <c r="I77" s="3"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="6"/>
+      <c r="A78" s="11"/>
       <c r="B78" s="3"/>
       <c r="C78" s="4"/>
       <c r="D78" s="3"/>
@@ -1576,7 +1581,7 @@
       <c r="I78" s="3"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="6"/>
+      <c r="A79" s="11"/>
       <c r="B79" s="3"/>
       <c r="C79" s="4"/>
       <c r="D79" s="3"/>
@@ -1587,7 +1592,7 @@
       <c r="I79" s="3"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
+      <c r="A80" s="11"/>
       <c r="B80" s="3"/>
       <c r="C80" s="4"/>
       <c r="D80" s="3"/>
@@ -1598,7 +1603,7 @@
       <c r="I80" s="3"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="6"/>
+      <c r="A81" s="11"/>
       <c r="B81" s="3"/>
       <c r="C81" s="4"/>
       <c r="D81" s="3"/>
@@ -1609,7 +1614,7 @@
       <c r="I81" s="3"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="6"/>
+      <c r="A82" s="11"/>
       <c r="B82" s="3"/>
       <c r="C82" s="4"/>
       <c r="D82" s="3"/>
@@ -1620,7 +1625,7 @@
       <c r="I82" s="3"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="6"/>
+      <c r="A83" s="11"/>
       <c r="B83" s="3"/>
       <c r="C83" s="4"/>
       <c r="D83" s="3"/>
@@ -1631,7 +1636,7 @@
       <c r="I83" s="3"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
+      <c r="A84" s="11"/>
       <c r="B84" s="3"/>
       <c r="C84" s="4"/>
       <c r="D84" s="3"/>
@@ -1642,7 +1647,7 @@
       <c r="I84" s="3"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="6"/>
+      <c r="A85" s="11"/>
       <c r="B85" s="3"/>
       <c r="C85" s="4"/>
       <c r="D85" s="3"/>
@@ -1653,7 +1658,7 @@
       <c r="I85" s="3"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="6"/>
+      <c r="A86" s="11"/>
       <c r="B86" s="3"/>
       <c r="C86" s="4"/>
       <c r="D86" s="3"/>
@@ -1664,7 +1669,7 @@
       <c r="I86" s="3"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="6"/>
+      <c r="A87" s="11"/>
       <c r="B87" s="3"/>
       <c r="C87" s="4"/>
       <c r="D87" s="3"/>

--- a/Schedule/BackEnd-Developer.xlsx
+++ b/Schedule/BackEnd-Developer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WISDOM-WEBSITE\PijamaWisdom\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02140390-7788-464F-8BFB-582427D7AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862827EB-63C2-4DFB-A835-C14656D504CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
     <t>Hữu Sĩ</t>
   </si>
   <si>
-    <t>Cart Detail</t>
+    <t xml:space="preserve">Cart Detail </t>
   </si>
 </sst>
 </file>
@@ -595,7 +595,7 @@
   <dimension ref="A2:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
